--- a/results/FrequencyTables/26581162_sg349R.xlsx
+++ b/results/FrequencyTables/26581162_sg349R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00447093889716841</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.014903129657228</v>
       </c>
       <c r="D2">
-        <v>0.979591836734694</v>
+        <v>0.938897168405365</v>
       </c>
       <c r="E2">
-        <v>0.0204081632653061</v>
+        <v>0.00745156482861401</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.979880774962742</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.973919523099851</v>
       </c>
       <c r="H2">
-        <v>0.0204081632653061</v>
+        <v>0.0104321907600596</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00521609538002981</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.998509687034277</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.003725782414307</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00670640834575261</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="R2">
-        <v>0.0612244897959184</v>
+        <v>0.0387481371087928</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.029806259314456</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0029806259314456</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.014903129657228</v>
       </c>
       <c r="V2">
-        <v>0.0102040816326531</v>
+        <v>0.014903129657228</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00968703427719821</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0134128166915052</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,22 +539,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.964977645305514</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00670640834575261</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00968703427719821</v>
       </c>
       <c r="E3">
-        <v>0.979591836734694</v>
+        <v>0.978390461997019</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0141579731743666</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0022354694485842</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -569,43 +569,43 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.98956780923994</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00894187779433681</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.003725782414307</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00521609538002981</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.987332339791356</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.988822652757079</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="S3">
-        <v>0.989795918367347</v>
+        <v>0.947839046199702</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0290611028315946</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.003725782414307</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.011177347242921</v>
       </c>
       <c r="D4">
-        <v>0.0204081632653061</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.022354694485842</v>
       </c>
       <c r="H4">
-        <v>0.979591836734694</v>
+        <v>0.988822652757079</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.99478390461997</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.999254843517139</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00447093889716841</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00521609538002981</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0102040816326531</v>
+        <v>0.00745156482861401</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00596125186289121</v>
       </c>
       <c r="R4">
-        <v>0.938775510204082</v>
+        <v>0.956035767511177</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00596125186289121</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.97317436661699</v>
       </c>
       <c r="V4">
-        <v>0.989795918367347</v>
+        <v>0.979135618479881</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.988822652757079</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.985096870342772</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,22 +687,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0268256333830104</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.967213114754098</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00596125186289121</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0134128166915052</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00521609538002981</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -717,43 +717,43 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.985842026825633</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99478390461997</v>
       </c>
       <c r="O5">
-        <v>0.989795918367347</v>
+        <v>0.986587183308495</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00596125186289121</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.003725782414307</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00447093889716841</v>
       </c>
       <c r="S5">
-        <v>0.0102040816326531</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.966467958271237</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00968703427719821</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.003725782414307</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
     </row>
   </sheetData>
